--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:C505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02904923378969992</v>
+        <v>0.05679352900956022</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09501906562357369</v>
+        <v>0.2327689350210331</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -463,21 +463,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0520044951854553</v>
+        <v>0.7805443336926857</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1136433640359196</v>
+        <v>0.7961072766887096</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1021740410456157</v>
+        <v>0.161417276888791</v>
       </c>
       <c r="B4" t="n">
-        <v>0.152509343434192</v>
+        <v>0.002267315189079333</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0827868023790253</v>
+        <v>0.01130857838774614</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2555483061471501</v>
+        <v>0.07267370081627018</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04788279458355912</v>
+        <v>0.06697151975387412</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01595734696730091</v>
+        <v>0.08475824622636215</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -507,21 +507,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.07333216455492016</v>
+        <v>0.8964381234810976</v>
       </c>
       <c r="B7" t="n">
-        <v>0.197971881169599</v>
+        <v>0.7449602266650098</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.03407884081956051</v>
+        <v>0.1262502073518993</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05098883781935702</v>
+        <v>0.275567901395737</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -529,32 +529,32 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2012029826344554</v>
+        <v>0.8531456154189067</v>
       </c>
       <c r="B9" t="n">
-        <v>0.175866468525199</v>
+        <v>0.7615454901618021</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2385206263755153</v>
+        <v>0.7077133548017284</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2734712913210878</v>
+        <v>0.8648851331378565</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2223380339265501</v>
+        <v>0.2477615836819889</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1726124733464451</v>
+        <v>0.05534116873416012</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1296068010835257</v>
+        <v>0.1245288237901637</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1479801234984256</v>
+        <v>0.07807160338927079</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -573,21 +573,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2857287882300881</v>
+        <v>0.8999326320427886</v>
       </c>
       <c r="B13" t="n">
-        <v>0.135970287622293</v>
+        <v>0.8535757853625442</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.290846595860416</v>
+        <v>0.1577019342150943</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09337015138145417</v>
+        <v>0.1733504656567195</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1395196947644068</v>
+        <v>0.01226290093036804</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01701579678539582</v>
+        <v>0.2424043208046629</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -606,21 +606,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.07679815525428012</v>
+        <v>0.7870772646091486</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09627064343373751</v>
+        <v>0.7983796182650015</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2298982651053547</v>
+        <v>0.1044258500512433</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001913352483004194</v>
+        <v>0.1588213993055465</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1917122625685567</v>
+        <v>0.2838222640301848</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1303447971383157</v>
+        <v>0.1651194353756436</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.06743347375007705</v>
+        <v>0.2388616772440876</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1594393626763339</v>
+        <v>0.05182308300991782</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1162360689484344</v>
+        <v>0.226845901353823</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2853245414292913</v>
+        <v>0.2524854902432938</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1760351712491694</v>
+        <v>0.2530723588886882</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07431407689868039</v>
+        <v>0.1176349043566437</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -672,21 +672,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2773986984437268</v>
+        <v>0.705210907078534</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1852753910863412</v>
+        <v>0.8633762471881612</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.05713123039037275</v>
+        <v>0.1376459635989704</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1470145716164044</v>
+        <v>0.2710141931147296</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2055404796176516</v>
+        <v>0.006234931853124903</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07990439822533579</v>
+        <v>0.008119602461447328</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2306004705459987</v>
+        <v>0.2315428540701993</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02002312990925347</v>
+        <v>0.05724857701512918</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.06494553705409101</v>
+        <v>0.2402276277458629</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09459101986036553</v>
+        <v>0.1091029839922774</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -727,43 +727,43 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1579383739167437</v>
+        <v>0.852835868347583</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2791293547379498</v>
+        <v>0.776324503074209</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2672632007765703</v>
+        <v>0.7017844222091055</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2291871931315262</v>
+        <v>0.889107213910183</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.0892925804179245</v>
+        <v>0.8544444391524937</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03475543868305096</v>
+        <v>0.7553955808895522</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2714973884194578</v>
+        <v>0.0006277948230289709</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04422497637171056</v>
+        <v>0.1897325845209479</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -771,21 +771,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1694972655541159</v>
+        <v>0.8064619174575176</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1785538638649503</v>
+        <v>0.7449347009225321</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1880695422339913</v>
+        <v>0.0380954087222184</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2625989637012625</v>
+        <v>0.1657615525291922</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -793,21 +793,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.01599810081570944</v>
+        <v>0.7895417620821552</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03167874368281456</v>
+        <v>0.7046250669465589</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.09562456917710377</v>
+        <v>0.09909499198324835</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01603368147110723</v>
+        <v>0.253368614547004</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -815,21 +815,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.04497344883089301</v>
+        <v>0.798290127740098</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2903203737605535</v>
+        <v>0.7507089943359057</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1656147104192278</v>
+        <v>0.04025988187452283</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02612880911621497</v>
+        <v>0.2655353390889197</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1265934368972945</v>
+        <v>0.1855581394140296</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1251937707310406</v>
+        <v>0.2857261333720567</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1060264242012597</v>
+        <v>0.04631488546014832</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2369262666470078</v>
+        <v>0.2855179411769355</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0124763699463705</v>
+        <v>0.266806674806627</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1147016500456994</v>
+        <v>0.1896163983239802</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1371477970502424</v>
+        <v>0.05303425978205732</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2985301723559148</v>
+        <v>0.04306768288672067</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2095861168600101</v>
+        <v>0.1688873679070411</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05206737141807397</v>
+        <v>0.2855218729696022</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.131221996075656</v>
+        <v>0.1232658285399778</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04855141882732574</v>
+        <v>0.1598514372117431</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -903,21 +903,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.2753931878427356</v>
+        <v>0.7401858787277628</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2045398101671768</v>
+        <v>0.8797991492886067</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.2863050315538345</v>
+        <v>0.2095476799487704</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07319333749745106</v>
+        <v>0.148223626800375</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -925,43 +925,43 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.2550946538511606</v>
+        <v>0.8641596280601627</v>
       </c>
       <c r="B45" t="n">
-        <v>0.193614414199748</v>
+        <v>0.7708836108070232</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.04255716757435611</v>
+        <v>0.7045915691213416</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06189598007512936</v>
+        <v>0.7944308207012212</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.007024088783303761</v>
+        <v>0.7637664722309311</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2169067639285282</v>
+        <v>0.8703438698371282</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.2968512719640679</v>
+        <v>0.02830499206644786</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1315171781631401</v>
+        <v>0.1592009362705071</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.0358151700677076</v>
+        <v>0.2562407164630366</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2309791267699151</v>
+        <v>0.07711206346678663</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -980,120 +980,120 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1932581779929356</v>
+        <v>0.7611182030902267</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1804614140540642</v>
+        <v>0.8185238889168983</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.07984550482961927</v>
+        <v>0.7001146131803788</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1568942914325422</v>
+        <v>0.8550069766893551</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.2342219895874368</v>
+        <v>0.8409179903573286</v>
       </c>
       <c r="B52" t="n">
-        <v>0.198387539891649</v>
+        <v>0.7481213615608105</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.1780367954762492</v>
+        <v>0.7158433629747326</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1729777974731238</v>
+        <v>0.7916922411945605</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.05414785800542232</v>
+        <v>0.8636293703644344</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2497088447247194</v>
+        <v>0.7869436475927025</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.2325186855030211</v>
+        <v>0.8745704219185533</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03716309000248332</v>
+        <v>0.7411597530163625</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.03732283344578289</v>
+        <v>0.881398043047127</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08086284311830677</v>
+        <v>0.8972864977881714</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1204935776794204</v>
+        <v>0.7921602251730359</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1048115951678441</v>
+        <v>0.8458980939921947</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.003884994126811536</v>
+        <v>0.8132171597710368</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2142132254183458</v>
+        <v>0.7295876825244998</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1042093714267358</v>
+        <v>0.7515641686366613</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2135124829053267</v>
+        <v>0.757161054476221</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1694319133399752</v>
+        <v>0.2523102620111282</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03046414738240735</v>
+        <v>0.170378533907654</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.127404048968384</v>
+        <v>0.2555705009004967</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1852503247104137</v>
+        <v>0.1398186788757357</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1112,76 +1112,76 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.03405667740350438</v>
+        <v>0.7639488299931401</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2245672530951502</v>
+        <v>0.8025756840299274</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1012736014932402</v>
+        <v>0.8600525946746278</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1212474510932011</v>
+        <v>0.8397634719278317</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1132661874300451</v>
+        <v>0.7737822180241075</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1411094900744835</v>
+        <v>0.8799112689191207</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.001989156444960094</v>
+        <v>0.7515559985725043</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2656123535003699</v>
+        <v>0.8837669886571917</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.001740242757552768</v>
+        <v>0.8739924918396561</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1510217996984879</v>
+        <v>0.8558039672470619</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1333862098928197</v>
+        <v>0.7722308600508673</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1168330922421446</v>
+        <v>0.7295236045428172</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.108179483537169</v>
+        <v>0.088003565126309</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2817389454940519</v>
+        <v>0.1152886499523523</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.02873100719562567</v>
+        <v>0.2951888045735051</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03413182572531993</v>
+        <v>0.1151624916674922</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1200,54 +1200,54 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.03085809242759616</v>
+        <v>0.8505232788238355</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09588075176941442</v>
+        <v>0.8865321270321875</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.03830069477689683</v>
+        <v>0.8172729830798883</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04566575233491599</v>
+        <v>0.8368459779572106</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1156997724402091</v>
+        <v>0.7115011145074521</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07330068052445254</v>
+        <v>0.7865409445923774</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.23284895369162</v>
+        <v>0.7942443697372796</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2375394228762514</v>
+        <v>0.788326994164429</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.2125638805537382</v>
+        <v>0.06398751022813004</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1821702834552337</v>
+        <v>0.2176724967560071</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1255,32 +1255,32 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.09077691559418334</v>
+        <v>0.786118756306427</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2943099060031706</v>
+        <v>0.8560654500513865</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.109168642287763</v>
+        <v>0.8002891697364295</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08012221992667241</v>
+        <v>0.8396317485418121</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.2252283382153538</v>
+        <v>0.2573534257200932</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07025492321340887</v>
+        <v>0.01534487645487268</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1288,21 +1288,21 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1215091217115411</v>
+        <v>0.7313326334077779</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1788504728277119</v>
+        <v>0.766702219419943</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.2287552280341878</v>
+        <v>0.1038775804077788</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2865334649685352</v>
+        <v>0.09521306807407916</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1310,21 +1310,21 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.283240363880788</v>
+        <v>0.8138141574959218</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2644730206068061</v>
+        <v>0.84159360814102</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.2741379851047197</v>
+        <v>0.07068849822182095</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1486030819453668</v>
+        <v>0.02389110785791201</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.04350628192884858</v>
+        <v>0.1504484842077402</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2054552072806495</v>
+        <v>0.2473486605949829</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1343,21 +1343,21 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.2817362000577419</v>
+        <v>0.715933719616752</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2368528424335014</v>
+        <v>0.8687144901080894</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.03898239137443334</v>
+        <v>0.02505989844308489</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001014719134029174</v>
+        <v>0.2703433397005601</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1365,21 +1365,21 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.278920127020089</v>
+        <v>0.7726158090211424</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1646814435637787</v>
+        <v>0.828319351856185</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.1011895426549163</v>
+        <v>0.2067729192614786</v>
       </c>
       <c r="B86" t="n">
-        <v>0.07803777557799284</v>
+        <v>0.2897246121094115</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1387,21 +1387,21 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.07003902124200823</v>
+        <v>0.876963115392811</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2811408066931353</v>
+        <v>0.7093279376324254</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.2361919607258572</v>
+        <v>0.05988076912637222</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1032350072423822</v>
+        <v>0.1338853965776265</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.03203267563512556</v>
+        <v>0.2279416264599534</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1457851550050216</v>
+        <v>0.06383321286069489</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.01880197745872036</v>
+        <v>0.1302205018630816</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1833381790266799</v>
+        <v>0.1665571180493828</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1431,32 +1431,32 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.04913297937566746</v>
+        <v>0.7547328907509276</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0803470133843598</v>
+        <v>0.8269043561669726</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.275308449152054</v>
+        <v>0.789738291443119</v>
       </c>
       <c r="B92" t="n">
-        <v>5.34625567316982e-05</v>
+        <v>0.8317138923794883</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.02552272664784909</v>
+        <v>0.1700025062485304</v>
       </c>
       <c r="B93" t="n">
-        <v>0.01083430674115458</v>
+        <v>0.08884896146619412</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.007431194097426585</v>
+        <v>0.1570557721540602</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1367240131850116</v>
+        <v>0.1935395439865395</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1475,21 +1475,21 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.2650722729679539</v>
+        <v>0.8082055750999966</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2623790334787134</v>
+        <v>0.8561551460839679</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.06744169098605658</v>
+        <v>0.04580711742308635</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1428595377309045</v>
+        <v>0.05277355989681121</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.09686801184623813</v>
+        <v>0.2475789122731628</v>
       </c>
       <c r="B97" t="n">
-        <v>0.009166270559770484</v>
+        <v>0.2850659749264089</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.243928679498497</v>
+        <v>0.2634955695186384</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07770855078515561</v>
+        <v>0.07049035794517526</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.1407919404416028</v>
+        <v>0.1539107200251593</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1784216132049844</v>
+        <v>0.09058921433205977</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.1274757145553781</v>
+        <v>0.03143504351595598</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1472708126349649</v>
+        <v>0.1725167977332343</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.1686277205021453</v>
+        <v>0.1761538759428457</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0180970334275644</v>
+        <v>0.2088941335540798</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1552,54 +1552,54 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.1809498393492501</v>
+        <v>0.7775591453602978</v>
       </c>
       <c r="B102" t="n">
-        <v>0.04620681541210818</v>
+        <v>0.8476177364764184</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1304600563227824</v>
+        <v>0.7467760829065367</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2287566828764158</v>
+        <v>0.8600989767135043</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.07519947088843822</v>
+        <v>0.8700543585992249</v>
       </c>
       <c r="B104" t="n">
-        <v>0.07335762579972989</v>
+        <v>0.8363765530100554</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.01980450183050163</v>
+        <v>0.8110152019008803</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243275538594994</v>
+        <v>0.8422564282092738</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.08361528230742656</v>
+        <v>0.2572303546608398</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2368424050597271</v>
+        <v>0.06858309458254552</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1607,21 +1607,21 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.08396232352263656</v>
+        <v>0.7221630543880794</v>
       </c>
       <c r="B107" t="n">
-        <v>0.07374380496775368</v>
+        <v>0.7464710289079496</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.0693676696698978</v>
+        <v>0.227127963646625</v>
       </c>
       <c r="B108" t="n">
-        <v>0.06227732314207891</v>
+        <v>0.2936075994416678</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.2509271245967918</v>
+        <v>0.006292524885266037</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2897716073243418</v>
+        <v>0.0209920207542279</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1640,65 +1640,65 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.2603102521303773</v>
+        <v>0.7127035510073155</v>
       </c>
       <c r="B110" t="n">
-        <v>0.05578168697354378</v>
+        <v>0.78618076858195</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.110509356385318</v>
+        <v>0.8637882949411977</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08314074556003494</v>
+        <v>0.8595729407484699</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.2456685938245576</v>
+        <v>0.7873064477312706</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2250630486850382</v>
+        <v>0.7373810151391778</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1624739561970434</v>
+        <v>0.8124582474024756</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1120937987702301</v>
+        <v>0.8835473230823323</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.03657198462309963</v>
+        <v>0.7543197495898518</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1827391020070413</v>
+        <v>0.8153785742556223</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2037163118927981</v>
+        <v>0.08008152879005895</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1063401199919561</v>
+        <v>0.09636732219833546</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.002512070119987386</v>
+        <v>0.1879276707784098</v>
       </c>
       <c r="B116" t="n">
-        <v>0.009979296985680642</v>
+        <v>0.2397648430606524</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.2137334447009555</v>
+        <v>0.0903405089582003</v>
       </c>
       <c r="B117" t="n">
-        <v>0.193328878505367</v>
+        <v>0.02776897755950544</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.2072548134532991</v>
+        <v>0.222504760143038</v>
       </c>
       <c r="B118" t="n">
-        <v>0.06691294161358377</v>
+        <v>0.08884724663848</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.1934071916364877</v>
+        <v>0.2629607536870591</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2756306157337776</v>
+        <v>0.2475814124482867</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1750,43 +1750,43 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1992590959544124</v>
+        <v>0.8313650651488563</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2053938820987011</v>
+        <v>0.8752708524071156</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.220262757495217</v>
+        <v>0.8908835724822382</v>
       </c>
       <c r="B121" t="n">
-        <v>0.188055612152547</v>
+        <v>0.7283968625772419</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.02062568596648784</v>
+        <v>0.8532817277556731</v>
       </c>
       <c r="B122" t="n">
-        <v>0.287019782397259</v>
+        <v>0.7257341892421737</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.03323119345642169</v>
+        <v>0.05810219301208902</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2417250885504025</v>
+        <v>0.2846662129070979</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -1794,32 +1794,32 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.1633662071455335</v>
+        <v>0.8449183129180484</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1938078858418698</v>
+        <v>0.7826869144693386</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.1757604685745158</v>
+        <v>0.8929478999271757</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1866475705704089</v>
+        <v>0.7110373331083971</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.259184072693511</v>
+        <v>0.1157303788526854</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01653280660665216</v>
+        <v>0.1317620853806613</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -1827,21 +1827,21 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1664304512810017</v>
+        <v>0.8615440298688908</v>
       </c>
       <c r="B127" t="n">
-        <v>0.256657675886639</v>
+        <v>0.7667712030258927</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.002289662707901297</v>
+        <v>0.08906800545029188</v>
       </c>
       <c r="B128" t="n">
-        <v>0.2893263516609494</v>
+        <v>0.2310711741746977</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.01160344539842582</v>
+        <v>0.1179375942535179</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2693863746576789</v>
+        <v>0.05990846352116343</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.2619554817859048</v>
+        <v>0.2930512062858047</v>
       </c>
       <c r="B130" t="n">
-        <v>0.05777232199006855</v>
+        <v>0.1667092690411844</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -1871,32 +1871,32 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.06119647094267924</v>
+        <v>0.8397768170189293</v>
       </c>
       <c r="B131" t="n">
-        <v>0.04937035502227091</v>
+        <v>0.7323656045868242</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.2383312984131095</v>
+        <v>0.8828952825332784</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1997132520059773</v>
+        <v>0.8402209087000871</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.2272259077700973</v>
+        <v>0.08015135051452557</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2839747640618509</v>
+        <v>0.01938687747754393</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -1904,43 +1904,43 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.06300525356426061</v>
+        <v>0.8607432350346838</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1936092975190256</v>
+        <v>0.8592745083505812</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.05029908022522758</v>
+        <v>0.7772551515549354</v>
       </c>
       <c r="B135" t="n">
-        <v>0.2555918008684663</v>
+        <v>0.889959478587555</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.2016828994140721</v>
+        <v>0.8745004088207853</v>
       </c>
       <c r="B136" t="n">
-        <v>0.06527578712625907</v>
+        <v>0.8821383417210709</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.1471407844948656</v>
+        <v>0.04267841454944502</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1419230088830628</v>
+        <v>0.003500044061354712</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -1948,32 +1948,32 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.2017239381953392</v>
+        <v>0.762287681798434</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2784415260115725</v>
+        <v>0.8661913135295281</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.06731109326435336</v>
+        <v>0.7832219370177126</v>
       </c>
       <c r="B139" t="n">
-        <v>0.2668203453154437</v>
+        <v>0.7543004308266201</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.006066885673267364</v>
+        <v>0.2463449139182754</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1410813383283532</v>
+        <v>0.2378559716186677</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.2299349191052119</v>
+        <v>0.1319658732092718</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1406758235208102</v>
+        <v>0.0342917982406578</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.2082587772648414</v>
+        <v>0.1391465899840073</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2891396725821622</v>
+        <v>0.2858016780386298</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2003,21 +2003,21 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.2726921038559537</v>
+        <v>0.7703524337223463</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1584020134855854</v>
+        <v>0.7366909764787331</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.2474488723663257</v>
+        <v>0.282837490779855</v>
       </c>
       <c r="B144" t="n">
-        <v>0.2561959116142088</v>
+        <v>0.2315028547185962</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2025,32 +2025,32 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.06010202074695757</v>
+        <v>0.8323748453569123</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1671169663369304</v>
+        <v>0.8853237457559796</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.1879107765267515</v>
+        <v>0.7306312339178626</v>
       </c>
       <c r="B146" t="n">
-        <v>0.278215449786563</v>
+        <v>0.804028963702678</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.2238651519703006</v>
+        <v>0.2634735536332946</v>
       </c>
       <c r="B147" t="n">
-        <v>0.2907133743558356</v>
+        <v>0.1469769165842983</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2058,21 +2058,21 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.05881227821407964</v>
+        <v>0.8657883952152464</v>
       </c>
       <c r="B148" t="n">
-        <v>0.03398519384610955</v>
+        <v>0.8193128853387799</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.2197696648761284</v>
+        <v>0.1728454133589413</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1685701383369924</v>
+        <v>0.1467329189801174</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2080,21 +2080,21 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.1977693159341896</v>
+        <v>0.7647120179257374</v>
       </c>
       <c r="B150" t="n">
-        <v>0.2022306037473494</v>
+        <v>0.8188410126972773</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.2472509370025585</v>
+        <v>0.291812179620911</v>
       </c>
       <c r="B151" t="n">
-        <v>0.07236894763692976</v>
+        <v>0.1531019579983629</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2102,21 +2102,21 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.02490687604808867</v>
+        <v>0.8452915963814891</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1327550442144</v>
+        <v>0.703128058837883</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.0792041898804033</v>
+        <v>0.1067701892030265</v>
       </c>
       <c r="B153" t="n">
-        <v>0.06150378573182421</v>
+        <v>0.1857497566454291</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.02269822955845526</v>
+        <v>0.131492393200468</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0700330970083007</v>
+        <v>0.08473627443940764</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.1105358026644104</v>
+        <v>0.07462059461182985</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1447036477721677</v>
+        <v>0.0902409744455166</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.2764720088448891</v>
+        <v>0.02194828609317922</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2843053904788884</v>
+        <v>0.1434570341487849</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.02805790175606244</v>
+        <v>0.1179885602445058</v>
       </c>
       <c r="B157" t="n">
-        <v>0.02252208983953504</v>
+        <v>0.1251675839678408</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.2703692722069808</v>
+        <v>0.1969389909288491</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1158707270916743</v>
+        <v>0.001095269579229352</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.1922437071132394</v>
+        <v>0.01535820022265378</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1238505279280732</v>
+        <v>0.07079821112922975</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2190,21 +2190,21 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.1764719266898938</v>
+        <v>0.8578358259864588</v>
       </c>
       <c r="B160" t="n">
-        <v>0.05670783386524032</v>
+        <v>0.8794819101319531</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.1025030986621616</v>
+        <v>0.179358038366706</v>
       </c>
       <c r="B161" t="n">
-        <v>0.03046020521448132</v>
+        <v>0.03333876798157707</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.02652409014710741</v>
+        <v>0.0833023963636081</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1671802212935133</v>
+        <v>0.1055346586788782</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1211084039193604</v>
+        <v>0.1347312509627911</v>
       </c>
       <c r="B163" t="n">
-        <v>0.2175104092071166</v>
+        <v>0.1924054670495861</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.2240312437506206</v>
+        <v>0.02122978294084461</v>
       </c>
       <c r="B164" t="n">
-        <v>0.2724149785494073</v>
+        <v>0.215342925720938</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1822595122840014</v>
+        <v>0.137481591968249</v>
       </c>
       <c r="B165" t="n">
-        <v>0.2020214451127529</v>
+        <v>0.2185467067773488</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2469923973347921</v>
+        <v>0.03381365145679753</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1055352810937807</v>
+        <v>0.0929587762626868</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.770568844865373e-05</v>
+        <v>0.2397507464839317</v>
       </c>
       <c r="B167" t="n">
-        <v>0.265459918084986</v>
+        <v>0.2997117684066508</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2278,32 +2278,32 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2426760234114149</v>
+        <v>0.8884598468775551</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1907304140820242</v>
+        <v>0.7230813714793096</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.03409823170498886</v>
+        <v>0.7741451911871843</v>
       </c>
       <c r="B169" t="n">
-        <v>0.03494301224670911</v>
+        <v>0.887020642256084</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.2544575512082434</v>
+        <v>0.2512436537829107</v>
       </c>
       <c r="B170" t="n">
-        <v>0.259572108489684</v>
+        <v>0.05610111004869401</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.1368550989517521</v>
+        <v>0.1629086578261121</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1310759512530722</v>
+        <v>0.2520795483325909</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2322,98 +2322,98 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.02257216067487989</v>
+        <v>0.8560600896049634</v>
       </c>
       <c r="B172" t="n">
-        <v>0.09462062730920058</v>
+        <v>0.7716592503933142</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.178357069957978</v>
+        <v>0.7196088763479731</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2455499274046419</v>
+        <v>0.8458668828807372</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.2640979904632665</v>
+        <v>0.7761224560801032</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2548661688017507</v>
+        <v>0.7241268456616577</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.2845266315528112</v>
+        <v>0.7129503037304402</v>
       </c>
       <c r="B175" t="n">
-        <v>0.2611696700819058</v>
+        <v>0.7767253263204075</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.2863434077189613</v>
+        <v>0.7107408787285857</v>
       </c>
       <c r="B176" t="n">
-        <v>0.2059974425137281</v>
+        <v>0.7118394519261113</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.01395524206775061</v>
+        <v>0.8834556560511436</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1593268228454293</v>
+        <v>0.7855176844008596</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.02360492697017151</v>
+        <v>0.8295133154244501</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1514910262415044</v>
+        <v>0.827227637154307</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.2970728769196755</v>
+        <v>0.7566607515873225</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1232826584419255</v>
+        <v>0.8870543725936727</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.002466598900232575</v>
+        <v>0.1633819178875281</v>
       </c>
       <c r="B180" t="n">
-        <v>0.2567027512582476</v>
+        <v>0.2257108881513008</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.1811763859004887</v>
+        <v>0.01894189979205438</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1882125228692272</v>
+        <v>0.1727196673929227</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.1807794948383583</v>
+        <v>0.2099767384469849</v>
       </c>
       <c r="B182" t="n">
-        <v>0.03815755577165793</v>
+        <v>0.1286500823279245</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2443,21 +2443,21 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.05365783567702957</v>
+        <v>0.7670873805304412</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1981953369947378</v>
+        <v>0.8485568776640343</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.2830949507996204</v>
+        <v>0.02637845708899353</v>
       </c>
       <c r="B184" t="n">
-        <v>0.140808751333585</v>
+        <v>0.295877984467365</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1483982234787171</v>
+        <v>0.1167863645865297</v>
       </c>
       <c r="B185" t="n">
-        <v>0.2128848418631421</v>
+        <v>0.19557628567914</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.07280765369224762</v>
+        <v>0.02815042840028524</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2404941711201792</v>
+        <v>0.2337998982525877</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2487,21 +2487,21 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1539798596705647</v>
+        <v>0.8439003837943562</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1867848364815975</v>
+        <v>0.7282512862929552</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.1565182197566675</v>
+        <v>0.1967239809883525</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1075837866395204</v>
+        <v>0.2487626434475614</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2509,65 +2509,65 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.1717402234464768</v>
+        <v>0.8055319979678317</v>
       </c>
       <c r="B189" t="n">
-        <v>0.231904508562042</v>
+        <v>0.8236127369626889</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.110305044808989</v>
+        <v>0.8701595481583776</v>
       </c>
       <c r="B190" t="n">
-        <v>0.002240935816643263</v>
+        <v>0.7045239066919343</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.1112619944951093</v>
+        <v>0.744495020372538</v>
       </c>
       <c r="B191" t="n">
-        <v>0.08013798176026596</v>
+        <v>0.8417132014612876</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.1221546313503017</v>
+        <v>0.8480790250067285</v>
       </c>
       <c r="B192" t="n">
-        <v>0.08889645860609377</v>
+        <v>0.8004195301796901</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.05563103674825668</v>
+        <v>0.8373676240571495</v>
       </c>
       <c r="B193" t="n">
-        <v>0.006027452442828885</v>
+        <v>0.7930964011361724</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.1310567369214394</v>
+        <v>0.2033205352017995</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2999991855078225</v>
+        <v>0.2951017065444291</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2575,65 +2575,65 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.01681737621760196</v>
+        <v>0.8463663510569341</v>
       </c>
       <c r="B195" t="n">
-        <v>0.2697098642233141</v>
+        <v>0.7962156495981617</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.1836333936174574</v>
+        <v>0.7026259412351105</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1374204550893118</v>
+        <v>0.7215023671383521</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.0778387410879272</v>
+        <v>0.7879813626027705</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1269221981875766</v>
+        <v>0.7767174070899558</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.1191081666807365</v>
+        <v>0.8121519181869321</v>
       </c>
       <c r="B198" t="n">
-        <v>0.2242258625690333</v>
+        <v>0.7214508801785907</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.07129701634473862</v>
+        <v>0.7309946430751841</v>
       </c>
       <c r="B199" t="n">
-        <v>0.245730065437909</v>
+        <v>0.7289796511488885</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.01479011808120838</v>
+        <v>0.1873286592873717</v>
       </c>
       <c r="B200" t="n">
-        <v>0.2808986966739591</v>
+        <v>0.1543678877720221</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -2641,32 +2641,32 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.1366775997447134</v>
+        <v>0.788629011357369</v>
       </c>
       <c r="B201" t="n">
-        <v>0.003214853606836787</v>
+        <v>0.8454161168237535</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.125487696358845</v>
+        <v>0.8738937859743877</v>
       </c>
       <c r="B202" t="n">
-        <v>0.03216088424557988</v>
+        <v>0.7511885768314953</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.1333232562361111</v>
+        <v>0.2071102724366196</v>
       </c>
       <c r="B203" t="n">
-        <v>0.2717975155515498</v>
+        <v>0.2682374729302747</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -2674,43 +2674,43 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.1061277528990266</v>
+        <v>0.8264039222620576</v>
       </c>
       <c r="B204" t="n">
-        <v>0.1296068178968176</v>
+        <v>0.8629472608097338</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.1318616575630302</v>
+        <v>0.8052853414926583</v>
       </c>
       <c r="B205" t="n">
-        <v>0.291945368023206</v>
+        <v>0.700084482044289</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.1573215868023855</v>
+        <v>0.7263393000269481</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1487964578378139</v>
+        <v>0.8849253588757657</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.2738567930387703</v>
+        <v>0.06515560537149452</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0745567941140181</v>
+        <v>0.214129972432971</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.04203534060184626</v>
+        <v>0.08659971226845616</v>
       </c>
       <c r="B208" t="n">
-        <v>0.06403120219108908</v>
+        <v>0.04748900125693188</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.2457236936560137</v>
+        <v>0.01937075648557861</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1398960370628765</v>
+        <v>0.04689137724333051</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -2740,21 +2740,21 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.2527949364597903</v>
+        <v>0.8179644139296089</v>
       </c>
       <c r="B210" t="n">
-        <v>0.1108909966139641</v>
+        <v>0.8548605891438219</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.1033350940448418</v>
+        <v>0.05942992175798048</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1031933078987915</v>
+        <v>0.1625295735398763</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.09669779552242781</v>
+        <v>0.2431510979909531</v>
       </c>
       <c r="B212" t="n">
-        <v>0.1009507373598432</v>
+        <v>0.2295525111956582</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -2773,43 +2773,43 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.1280100049527651</v>
+        <v>0.8383279231394234</v>
       </c>
       <c r="B213" t="n">
-        <v>0.2591011052571532</v>
+        <v>0.876764722870932</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.1976173161328084</v>
+        <v>0.8101645755946183</v>
       </c>
       <c r="B214" t="n">
-        <v>0.251580158171449</v>
+        <v>0.765484160622406</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.1708627870284687</v>
+        <v>0.7881762846978069</v>
       </c>
       <c r="B215" t="n">
-        <v>0.04714915043872737</v>
+        <v>0.7518421138123224</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.1733823683900079</v>
+        <v>0.06841094620233608</v>
       </c>
       <c r="B216" t="n">
-        <v>0.03106212457081318</v>
+        <v>0.11829709024306</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -2817,32 +2817,32 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.2106925262432011</v>
+        <v>0.8777403609440172</v>
       </c>
       <c r="B217" t="n">
-        <v>0.04273448057563933</v>
+        <v>0.7124850585786457</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.1924464610247686</v>
+        <v>0.8302650310594353</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1483628540884794</v>
+        <v>0.8583588108842426</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.2732551673672488</v>
+        <v>0.101770203582184</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0006023844032460812</v>
+        <v>0.2049233665835588</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.0039338142013012</v>
+        <v>0.2009704324656512</v>
       </c>
       <c r="B220" t="n">
-        <v>0.06711996607201634</v>
+        <v>0.05410031963925723</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -2861,21 +2861,21 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.1161738702300734</v>
+        <v>0.7413378639397077</v>
       </c>
       <c r="B221" t="n">
-        <v>0.03004299989186371</v>
+        <v>0.8499595770198236</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.2665389734328693</v>
+        <v>0.2273413131436719</v>
       </c>
       <c r="B222" t="n">
-        <v>0.01141046928523991</v>
+        <v>0.1775705435637543</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -2883,21 +2883,21 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.252949088869825</v>
+        <v>0.8141576345568697</v>
       </c>
       <c r="B223" t="n">
-        <v>0.1155478437350579</v>
+        <v>0.7796007681827501</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.1114189319017882</v>
+        <v>0.1385824086124976</v>
       </c>
       <c r="B224" t="n">
-        <v>0.1193068685260736</v>
+        <v>0.2920290969203428</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.1776011857248099</v>
+        <v>0.1787920641632203</v>
       </c>
       <c r="B225" t="n">
-        <v>0.02209195446298232</v>
+        <v>0.07260263239623978</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.0005835843713678512</v>
+        <v>0.1781534052151368</v>
       </c>
       <c r="B226" t="n">
-        <v>0.2228888876840852</v>
+        <v>0.1518320790916381</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.2717936983530441</v>
+        <v>0.2278598228094263</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0934097189374925</v>
+        <v>0.1441278512401098</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -2938,54 +2938,54 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.1730974317851522</v>
+        <v>0.8525404727583583</v>
       </c>
       <c r="B228" t="n">
-        <v>0.2120534312258654</v>
+        <v>0.7321902207017401</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.2072994127956067</v>
+        <v>0.800776716679769</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0460950072418988</v>
+        <v>0.8468713957291905</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.018174876288025</v>
+        <v>0.7357071074776171</v>
       </c>
       <c r="B230" t="n">
-        <v>0.2397481768637773</v>
+        <v>0.7897014139558101</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.2937570388384449</v>
+        <v>0.7172171240388284</v>
       </c>
       <c r="B231" t="n">
-        <v>0.2943916378949815</v>
+        <v>0.8781366526507062</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.1767151174815505</v>
+        <v>0.1470607148470601</v>
       </c>
       <c r="B232" t="n">
-        <v>0.2890379390223189</v>
+        <v>0.2947982560394973</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.2730639888584273</v>
+        <v>0.004211908685525034</v>
       </c>
       <c r="B233" t="n">
-        <v>0.115273993283067</v>
+        <v>0.2781238263694247</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3004,21 +3004,21 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.1693302373513723</v>
+        <v>0.8947496513255191</v>
       </c>
       <c r="B234" t="n">
-        <v>0.05747196587008858</v>
+        <v>0.8117493677126981</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.2399919060661806</v>
+        <v>0.1214470080242201</v>
       </c>
       <c r="B235" t="n">
-        <v>0.2090101262015978</v>
+        <v>0.1941931767424541</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.1499570098991418</v>
+        <v>0.07673177123426084</v>
       </c>
       <c r="B236" t="n">
-        <v>0.1538581780479718</v>
+        <v>0.1794555662871752</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.2516766121552164</v>
+        <v>0.213157631054485</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1763211109030875</v>
+        <v>0.07265440237898847</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3048,54 +3048,54 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.1123982727567322</v>
+        <v>0.7605928261081782</v>
       </c>
       <c r="B238" t="n">
-        <v>0.1257775208371023</v>
+        <v>0.8558634207965258</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.08074389843043153</v>
+        <v>0.7329457115428749</v>
       </c>
       <c r="B239" t="n">
-        <v>0.1906353355741755</v>
+        <v>0.7562879226942663</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.252853447944041</v>
+        <v>0.8075554916388389</v>
       </c>
       <c r="B240" t="n">
-        <v>0.1366757623257452</v>
+        <v>0.7628789599296664</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.08262519310614563</v>
+        <v>0.7226154753130599</v>
       </c>
       <c r="B241" t="n">
-        <v>0.1896017573392345</v>
+        <v>0.704130359376288</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.2221383242281962</v>
+        <v>0.215691658965617</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1983280520307596</v>
+        <v>0.1512180239426683</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3103,32 +3103,32 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.2329129713988063</v>
+        <v>0.8128833005861928</v>
       </c>
       <c r="B243" t="n">
-        <v>0.2842830710628835</v>
+        <v>0.7839325062738444</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.1990938114596873</v>
+        <v>0.8923388661605645</v>
       </c>
       <c r="B244" t="n">
-        <v>0.2046102995360836</v>
+        <v>0.7698795067357858</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.07890653929220723</v>
+        <v>0.1171861371066826</v>
       </c>
       <c r="B245" t="n">
-        <v>0.2358050922129253</v>
+        <v>0.01986771336390577</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.2460514244185126</v>
+        <v>0.0901791327482679</v>
       </c>
       <c r="B246" t="n">
-        <v>0.1192642580253414</v>
+        <v>0.1390007424309816</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3147,54 +3147,54 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.05753049589149642</v>
+        <v>0.8820119669339719</v>
       </c>
       <c r="B247" t="n">
-        <v>0.08272903602818583</v>
+        <v>0.7371938905111824</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.2179285940869489</v>
+        <v>0.8011156267774725</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1059679299514651</v>
+        <v>0.8413203965602303</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.1367184126292051</v>
+        <v>0.8911578449151307</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1659256616844756</v>
+        <v>0.7873817903926527</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.1450842961559919</v>
+        <v>0.8635689834145897</v>
       </c>
       <c r="B250" t="n">
-        <v>0.2219856689639962</v>
+        <v>0.7863792260832587</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.2850479343971078</v>
+        <v>0.1655659882459984</v>
       </c>
       <c r="B251" t="n">
-        <v>0.265756898793683</v>
+        <v>0.2648492842578689</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3202,21 +3202,21 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.4353057858460476</v>
+        <v>0.1067689321480622</v>
       </c>
       <c r="B252" t="n">
-        <v>0.6209733336917209</v>
+        <v>0.2945960234487321</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.7708400171534019</v>
+        <v>0.7965513676511693</v>
       </c>
       <c r="B253" t="n">
-        <v>0.4138952104740382</v>
+        <v>0.7000953953947943</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3224,43 +3224,43 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.473978773826869</v>
+        <v>0.2706580208376707</v>
       </c>
       <c r="B254" t="n">
-        <v>0.8414506965268411</v>
+        <v>0.111011575435458</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.4136784622505384</v>
+        <v>0.1366160282896713</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7731862965813596</v>
+        <v>0.04548195135524291</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.876620881617848</v>
+        <v>0.1810511334391968</v>
       </c>
       <c r="B256" t="n">
-        <v>0.7915667969702405</v>
+        <v>0.2970569267759308</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.4057791285505108</v>
+        <v>0.7177061648087818</v>
       </c>
       <c r="B257" t="n">
-        <v>0.7735468761181992</v>
+        <v>0.7786702043270955</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.6757240870448538</v>
+        <v>0.7935200060196587</v>
       </c>
       <c r="B258" t="n">
-        <v>0.4718755062715527</v>
+        <v>0.8125982297155266</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3279,21 +3279,21 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.7753552464746643</v>
+        <v>0.1675081827490849</v>
       </c>
       <c r="B259" t="n">
-        <v>0.4565041795553294</v>
+        <v>0.2715008490135418</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.5608007931345984</v>
+        <v>0.8161373842490089</v>
       </c>
       <c r="B260" t="n">
-        <v>0.6657791034347917</v>
+        <v>0.7562520426876748</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3301,21 +3301,21 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.5250202183721676</v>
+        <v>0.2206925190406689</v>
       </c>
       <c r="B261" t="n">
-        <v>0.697096976841912</v>
+        <v>0.1065943883044222</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.617077009631251</v>
+        <v>0.8364645822960683</v>
       </c>
       <c r="B262" t="n">
-        <v>0.631623174225181</v>
+        <v>0.8960136108217882</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.8305705355475643</v>
+        <v>0.7770746344980506</v>
       </c>
       <c r="B263" t="n">
-        <v>0.6979565504740377</v>
+        <v>0.7969954890493363</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3334,21 +3334,21 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.4986326711639614</v>
+        <v>0.1608884935730944</v>
       </c>
       <c r="B264" t="n">
-        <v>0.6366906772293877</v>
+        <v>0.2755103066754908</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.5081197003316973</v>
+        <v>0.7993077067311605</v>
       </c>
       <c r="B265" t="n">
-        <v>0.4306885670796296</v>
+        <v>0.7965637653744209</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3356,43 +3356,43 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.4215099074699926</v>
+        <v>0.2658432065368292</v>
       </c>
       <c r="B266" t="n">
-        <v>0.749085608273781</v>
+        <v>0.04144115926494737</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.4862257876892476</v>
+        <v>0.1394692136391016</v>
       </c>
       <c r="B267" t="n">
-        <v>0.7168193482964557</v>
+        <v>0.2023671781188789</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.7101994399090343</v>
+        <v>0.1955903569408114</v>
       </c>
       <c r="B268" t="n">
-        <v>0.6278481150470646</v>
+        <v>0.0854322503246925</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.6487979628592975</v>
+        <v>0.723754883307526</v>
       </c>
       <c r="B269" t="n">
-        <v>0.4952649562488346</v>
+        <v>0.7392991132472622</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.7643842409420611</v>
+        <v>0.7345339636758473</v>
       </c>
       <c r="B270" t="n">
-        <v>0.6560929952527677</v>
+        <v>0.785125032966801</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3411,43 +3411,43 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.5655170989319296</v>
+        <v>0.1543268466530382</v>
       </c>
       <c r="B271" t="n">
-        <v>0.5689345201123013</v>
+        <v>0.293070741191887</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.6056149599058145</v>
+        <v>0.0522990682043032</v>
       </c>
       <c r="B272" t="n">
-        <v>0.7905898876383324</v>
+        <v>0.135380598826792</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.6177040932184423</v>
+        <v>0.1210621643117052</v>
       </c>
       <c r="B273" t="n">
-        <v>0.6803253832862978</v>
+        <v>0.2684419224875225</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.8085573889792701</v>
+        <v>0.7156866985122916</v>
       </c>
       <c r="B274" t="n">
-        <v>0.6540578452675829</v>
+        <v>0.8898809347714849</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3455,21 +3455,21 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.873415213971288</v>
+        <v>0.1098372325187644</v>
       </c>
       <c r="B275" t="n">
-        <v>0.4977153555236911</v>
+        <v>0.0644347474790354</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.5866625990577214</v>
+        <v>0.7258347273456327</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4631927310141082</v>
+        <v>0.848294949703251</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.4496737460221701</v>
+        <v>0.7886666105584518</v>
       </c>
       <c r="B277" t="n">
-        <v>0.7628384735054733</v>
+        <v>0.812342420362591</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.4054609805301441</v>
+        <v>0.7226871950370066</v>
       </c>
       <c r="B278" t="n">
-        <v>0.7378869690366257</v>
+        <v>0.8036639746558599</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.8605683594806545</v>
+        <v>0.7204547100029288</v>
       </c>
       <c r="B279" t="n">
-        <v>0.5558394375377091</v>
+        <v>0.8765334550070267</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3510,32 +3510,32 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.4956343792595201</v>
+        <v>0.1865314110572637</v>
       </c>
       <c r="B280" t="n">
-        <v>0.5552125633973983</v>
+        <v>0.207185667553248</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.7890327371564529</v>
+        <v>0.05695377560394151</v>
       </c>
       <c r="B281" t="n">
-        <v>0.8976890389523714</v>
+        <v>0.2841762875813329</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.7964211376510282</v>
+        <v>0.7852095287957706</v>
       </c>
       <c r="B282" t="n">
-        <v>0.4403462778935943</v>
+        <v>0.8488453782321228</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.6372406461040412</v>
+        <v>0.748435162782686</v>
       </c>
       <c r="B283" t="n">
-        <v>0.8581483133638743</v>
+        <v>0.7407785931702301</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.5406939784778221</v>
+        <v>0.7924963733076545</v>
       </c>
       <c r="B284" t="n">
-        <v>0.4179178196319372</v>
+        <v>0.8139176615780517</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -3565,76 +3565,76 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.681723820206254</v>
+        <v>0.08321532309089923</v>
       </c>
       <c r="B285" t="n">
-        <v>0.4023931809680679</v>
+        <v>0.05005808199735767</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.8549475635837336</v>
+        <v>0.2129379137355502</v>
       </c>
       <c r="B286" t="n">
-        <v>0.8636281323733703</v>
+        <v>0.02315883834148274</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.5437930566196274</v>
+        <v>0.09599999097184629</v>
       </c>
       <c r="B287" t="n">
-        <v>0.4020061236238471</v>
+        <v>0.03395192916799748</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.6287533066739763</v>
+        <v>0.2465352540983265</v>
       </c>
       <c r="B288" t="n">
-        <v>0.8871096804432426</v>
+        <v>0.1662175124299368</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.5974246016378485</v>
+        <v>0.2776715765717609</v>
       </c>
       <c r="B289" t="n">
-        <v>0.7368323459331081</v>
+        <v>0.077363057514649</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.795504697150059</v>
+        <v>0.1765974222984015</v>
       </c>
       <c r="B290" t="n">
-        <v>0.6232468777899666</v>
+        <v>0.04894081661017489</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.8897961241615526</v>
+        <v>0.8196691969828119</v>
       </c>
       <c r="B291" t="n">
-        <v>0.4478271767179191</v>
+        <v>0.7530652233793419</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.4119249418200131</v>
+        <v>0.8017544253714203</v>
       </c>
       <c r="B292" t="n">
-        <v>0.7975200293060691</v>
+        <v>0.754561437409851</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.6771946981345955</v>
+        <v>0.7265054074370049</v>
       </c>
       <c r="B293" t="n">
-        <v>0.7949387400909165</v>
+        <v>0.8789955313380062</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -3664,21 +3664,21 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.432628611767718</v>
+        <v>0.136316194946596</v>
       </c>
       <c r="B294" t="n">
-        <v>0.5257265436984946</v>
+        <v>0.1420112530048489</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.5674368317304606</v>
+        <v>0.7265362354357447</v>
       </c>
       <c r="B295" t="n">
-        <v>0.5147229870950839</v>
+        <v>0.7569496367521894</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -3686,54 +3686,54 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.7150306091263813</v>
+        <v>0.1376014344961028</v>
       </c>
       <c r="B296" t="n">
-        <v>0.4082370870496838</v>
+        <v>0.2740013150424916</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.8038893272033347</v>
+        <v>0.05339303400911249</v>
       </c>
       <c r="B297" t="n">
-        <v>0.8332472381374401</v>
+        <v>0.04509711509218412</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.6664692259030331</v>
+        <v>0.1484646408268531</v>
       </c>
       <c r="B298" t="n">
-        <v>0.6583202771658405</v>
+        <v>0.171002017045932</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.4553513343183119</v>
+        <v>0.05730975330043057</v>
       </c>
       <c r="B299" t="n">
-        <v>0.7620411428321929</v>
+        <v>0.08564166967813701</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.550124216164825</v>
+        <v>0.8931712637185809</v>
       </c>
       <c r="B300" t="n">
-        <v>0.501699554204976</v>
+        <v>0.8145854631163835</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.4425816141999513</v>
+        <v>0.8114889544205471</v>
       </c>
       <c r="B301" t="n">
-        <v>0.4185974903580322</v>
+        <v>0.7524469026380911</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -3752,21 +3752,21 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.5834045992824755</v>
+        <v>0.05917149552393693</v>
       </c>
       <c r="B302" t="n">
-        <v>0.6074258246525072</v>
+        <v>0.2858602729501591</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.6034295984786413</v>
+        <v>0.7053501457635083</v>
       </c>
       <c r="B303" t="n">
-        <v>0.5473142218771142</v>
+        <v>0.7692013603690722</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.5665213781731328</v>
+        <v>0.7025524483111026</v>
       </c>
       <c r="B304" t="n">
-        <v>0.8985666232758751</v>
+        <v>0.794493512732434</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.5790894629392982</v>
+        <v>0.7604661131759745</v>
       </c>
       <c r="B305" t="n">
-        <v>0.7899419823304967</v>
+        <v>0.8466816300751813</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.7712257306461283</v>
+        <v>0.7999259993034249</v>
       </c>
       <c r="B306" t="n">
-        <v>0.888915365545966</v>
+        <v>0.776394076251596</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.8548616084787385</v>
+        <v>0.7017363893207622</v>
       </c>
       <c r="B307" t="n">
-        <v>0.6259837480762021</v>
+        <v>0.8746182574668787</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.7075409230480587</v>
+        <v>0.7324635768814292</v>
       </c>
       <c r="B308" t="n">
-        <v>0.5951997108253708</v>
+        <v>0.7106392532879744</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.8327044848333893</v>
+        <v>0.8108513792962704</v>
       </c>
       <c r="B309" t="n">
-        <v>0.602529526764953</v>
+        <v>0.7019283505786958</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -3840,54 +3840,54 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.6252908718002057</v>
+        <v>0.1973741710390518</v>
       </c>
       <c r="B310" t="n">
-        <v>0.8257597953047422</v>
+        <v>0.2551048435043834</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.4191801381164204</v>
+        <v>0.1953919961759537</v>
       </c>
       <c r="B311" t="n">
-        <v>0.8651500896328215</v>
+        <v>0.00428665314452027</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.6058245997049161</v>
+        <v>0.1507687035503794</v>
       </c>
       <c r="B312" t="n">
-        <v>0.6907954912694736</v>
+        <v>0.2241751910950664</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.8380280802491682</v>
+        <v>0.1812933040561744</v>
       </c>
       <c r="B313" t="n">
-        <v>0.8783246797266586</v>
+        <v>0.167746676091734</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.6859078187720169</v>
+        <v>0.8705163154266583</v>
       </c>
       <c r="B314" t="n">
-        <v>0.6741927124754201</v>
+        <v>0.7597671495614849</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.4177477908449449</v>
+        <v>0.7580685348158135</v>
       </c>
       <c r="B315" t="n">
-        <v>0.7290276684744617</v>
+        <v>0.8116525596970534</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3906,87 +3906,87 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.4036732808980855</v>
+        <v>0.09740471482450171</v>
       </c>
       <c r="B316" t="n">
-        <v>0.6790471696425768</v>
+        <v>0.01895068406822871</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.6212500333436703</v>
+        <v>0.1840685617087998</v>
       </c>
       <c r="B317" t="n">
-        <v>0.5089717177826555</v>
+        <v>0.2389037653034462</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.6622549713892455</v>
+        <v>0.005897949742979391</v>
       </c>
       <c r="B318" t="n">
-        <v>0.5750938560466837</v>
+        <v>0.1170961862847613</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.590980667121098</v>
+        <v>0.1811394516836738</v>
       </c>
       <c r="B319" t="n">
-        <v>0.6791680507917636</v>
+        <v>0.1937811187090589</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.8511572873511604</v>
+        <v>0.06820780095020362</v>
       </c>
       <c r="B320" t="n">
-        <v>0.822484798574415</v>
+        <v>0.07704631669791125</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.4182080165359982</v>
+        <v>0.2582292942090008</v>
       </c>
       <c r="B321" t="n">
-        <v>0.47518508575392</v>
+        <v>0.2914513035060661</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.6380784539821509</v>
+        <v>0.1195145648678423</v>
       </c>
       <c r="B322" t="n">
-        <v>0.4064737215701726</v>
+        <v>0.2523644101088349</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.4446940494161967</v>
+        <v>0.8661072571921922</v>
       </c>
       <c r="B323" t="n">
-        <v>0.6531901524555919</v>
+        <v>0.8678758729613508</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -3994,32 +3994,32 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.7107019037230644</v>
+        <v>0.1942919533848765</v>
       </c>
       <c r="B324" t="n">
-        <v>0.7412632392282767</v>
+        <v>0.2446505902267266</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.6879011490252634</v>
+        <v>0.1956371466456754</v>
       </c>
       <c r="B325" t="n">
-        <v>0.449135127629234</v>
+        <v>0.2678241911208007</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.6554834277736359</v>
+        <v>0.7197848958824684</v>
       </c>
       <c r="B326" t="n">
-        <v>0.4343918403310972</v>
+        <v>0.8335513117149583</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4027,21 +4027,21 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.5500998454207978</v>
+        <v>0.04692174351798418</v>
       </c>
       <c r="B327" t="n">
-        <v>0.4505556719719385</v>
+        <v>0.01068856036329737</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.5692260273401257</v>
+        <v>0.7327538946028451</v>
       </c>
       <c r="B328" t="n">
-        <v>0.8237792246964892</v>
+        <v>0.895407202940111</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4049,21 +4049,21 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.8540475978860911</v>
+        <v>0.03701133599371311</v>
       </c>
       <c r="B329" t="n">
-        <v>0.8006014743546073</v>
+        <v>0.1650790819623493</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.5466855182354888</v>
+        <v>0.735736063698309</v>
       </c>
       <c r="B330" t="n">
-        <v>0.6017842013502499</v>
+        <v>0.8410870687319048</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4071,21 +4071,21 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.7559535571977696</v>
+        <v>0.2896265860467641</v>
       </c>
       <c r="B331" t="n">
-        <v>0.6876112796794023</v>
+        <v>0.2726472586387248</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.675412915006702</v>
+        <v>0.8916115508757921</v>
       </c>
       <c r="B332" t="n">
-        <v>0.687329306423718</v>
+        <v>0.8993318075136671</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.8482227281107151</v>
+        <v>0.811263033436686</v>
       </c>
       <c r="B333" t="n">
-        <v>0.7317840981593624</v>
+        <v>0.8611784524507339</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4104,32 +4104,32 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.563519389429882</v>
+        <v>0.05716208444464775</v>
       </c>
       <c r="B334" t="n">
-        <v>0.5856070802079794</v>
+        <v>0.2740779564748365</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.5774544824437038</v>
+        <v>0.2931703074760209</v>
       </c>
       <c r="B335" t="n">
-        <v>0.5653782423979918</v>
+        <v>0.210910139269554</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.6100941352915755</v>
+        <v>0.7199724573531361</v>
       </c>
       <c r="B336" t="n">
-        <v>0.5873549143653448</v>
+        <v>0.7627440638197448</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4137,54 +4137,54 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.883079772435448</v>
+        <v>0.01325085579920534</v>
       </c>
       <c r="B337" t="n">
-        <v>0.4833143047825799</v>
+        <v>0.1082867849693049</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.7703053966367843</v>
+        <v>0.2119574220598006</v>
       </c>
       <c r="B338" t="n">
-        <v>0.7370688999279632</v>
+        <v>0.2503254941756399</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.6714179594301346</v>
+        <v>0.2958456272789432</v>
       </c>
       <c r="B339" t="n">
-        <v>0.5597654981740483</v>
+        <v>0.2045867351435639</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.882772344292216</v>
+        <v>0.1711015617736631</v>
       </c>
       <c r="B340" t="n">
-        <v>0.8545173290592056</v>
+        <v>0.05056672749199951</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.8950905414034971</v>
+        <v>0.8779917751796791</v>
       </c>
       <c r="B341" t="n">
-        <v>0.8200080582176204</v>
+        <v>0.8176794317466834</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4192,32 +4192,32 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.8313322686279783</v>
+        <v>0.2798391190317659</v>
       </c>
       <c r="B342" t="n">
-        <v>0.4730848236199784</v>
+        <v>0.04494699225213741</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.7003540949621465</v>
+        <v>0.08545551200035063</v>
       </c>
       <c r="B343" t="n">
-        <v>0.5947003431298561</v>
+        <v>0.09788883385278638</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.4065100613727888</v>
+        <v>0.8728328245721684</v>
       </c>
       <c r="B344" t="n">
-        <v>0.773572257378772</v>
+        <v>0.744563072806421</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4225,32 +4225,32 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.6052852362226212</v>
+        <v>0.03126587310020126</v>
       </c>
       <c r="B345" t="n">
-        <v>0.5190685765986547</v>
+        <v>0.05764485526850782</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.7214103503075611</v>
+        <v>0.1856614010080435</v>
       </c>
       <c r="B346" t="n">
-        <v>0.8875154218124593</v>
+        <v>0.2610130584603845</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.4427356786205466</v>
+        <v>0.8490464727568481</v>
       </c>
       <c r="B347" t="n">
-        <v>0.673053145236827</v>
+        <v>0.7691139861280085</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.5313686604927375</v>
+        <v>0.8296031162626559</v>
       </c>
       <c r="B348" t="n">
-        <v>0.8726785190714166</v>
+        <v>0.7169675620827388</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.5859926436749079</v>
+        <v>0.8508288936984829</v>
       </c>
       <c r="B349" t="n">
-        <v>0.6822542172322321</v>
+        <v>0.7811580626949488</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.728555024968587</v>
+        <v>0.748520490649315</v>
       </c>
       <c r="B350" t="n">
-        <v>0.8759494815467792</v>
+        <v>0.7255831097405145</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.8732080918920498</v>
+        <v>0.7179301359728878</v>
       </c>
       <c r="B351" t="n">
-        <v>0.5246949273461389</v>
+        <v>0.8587920901181467</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.8471838158534406</v>
+        <v>0.8669315177013719</v>
       </c>
       <c r="B352" t="n">
-        <v>0.710806619704227</v>
+        <v>0.8052545280139637</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -4313,21 +4313,21 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.4840934513955064</v>
+        <v>0.1644842536527236</v>
       </c>
       <c r="B353" t="n">
-        <v>0.8853996531733914</v>
+        <v>0.1989607945663236</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.8808629625822532</v>
+        <v>0.8283955844377957</v>
       </c>
       <c r="B354" t="n">
-        <v>0.6778715273526745</v>
+        <v>0.8304727049740199</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4335,43 +4335,43 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.7372604837114902</v>
+        <v>0.115431573074151</v>
       </c>
       <c r="B355" t="n">
-        <v>0.4762625902445732</v>
+        <v>0.08951991125741925</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.8673625626352848</v>
+        <v>0.2231512338167072</v>
       </c>
       <c r="B356" t="n">
-        <v>0.4313030963432622</v>
+        <v>0.2030741606100581</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.558039124689913</v>
+        <v>0.07211220892160188</v>
       </c>
       <c r="B357" t="n">
-        <v>0.7835928686140841</v>
+        <v>0.05757422995423497</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.8002078775467226</v>
+        <v>0.8324518868019128</v>
       </c>
       <c r="B358" t="n">
-        <v>0.4313812225033269</v>
+        <v>0.7322762054901812</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.491618182694865</v>
+        <v>0.8234076469619421</v>
       </c>
       <c r="B359" t="n">
-        <v>0.8705607656392114</v>
+        <v>0.8448942594547063</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.5189669635223859</v>
+        <v>0.8407538253906193</v>
       </c>
       <c r="B360" t="n">
-        <v>0.7759286361405013</v>
+        <v>0.8921100371377637</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.4293135071457283</v>
+        <v>0.7121988751436099</v>
       </c>
       <c r="B361" t="n">
-        <v>0.5214229002893345</v>
+        <v>0.7138741574272865</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.4593780800878795</v>
+        <v>0.8107905326032344</v>
       </c>
       <c r="B362" t="n">
-        <v>0.7031255595898616</v>
+        <v>0.8199347280652735</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.6137616875762597</v>
+        <v>0.7859186276945829</v>
       </c>
       <c r="B363" t="n">
-        <v>0.8835710774893286</v>
+        <v>0.8934422036699265</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -4434,21 +4434,21 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.5446985564380387</v>
+        <v>0.1367996251829149</v>
       </c>
       <c r="B364" t="n">
-        <v>0.8544031335915644</v>
+        <v>0.1021940867391476</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.6293696662173101</v>
+        <v>0.7356764634842261</v>
       </c>
       <c r="B365" t="n">
-        <v>0.6192737286443004</v>
+        <v>0.7966585517475495</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -4456,32 +4456,32 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.8582440685793609</v>
+        <v>0.1341556714261468</v>
       </c>
       <c r="B366" t="n">
-        <v>0.6660615451090921</v>
+        <v>0.1472208149597561</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.6971760903541697</v>
+        <v>0.2028292277395021</v>
       </c>
       <c r="B367" t="n">
-        <v>0.5764951589343632</v>
+        <v>0.04033470729178249</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.8099914739320048</v>
+        <v>0.77992611538092</v>
       </c>
       <c r="B368" t="n">
-        <v>0.6875625917934401</v>
+        <v>0.7229333203419758</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.7505975050437343</v>
+        <v>0.7878457409459801</v>
       </c>
       <c r="B369" t="n">
-        <v>0.7460146509877086</v>
+        <v>0.7653335651577086</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -4500,43 +4500,43 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.6751621263591416</v>
+        <v>0.02542562537890925</v>
       </c>
       <c r="B370" t="n">
-        <v>0.4476768072372919</v>
+        <v>0.1494953360653077</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.6305108883984603</v>
+        <v>0.0004170817252731828</v>
       </c>
       <c r="B371" t="n">
-        <v>0.8368273094301002</v>
+        <v>0.2877879242919005</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.64971755022933</v>
+        <v>0.07123001007159231</v>
       </c>
       <c r="B372" t="n">
-        <v>0.5270791040211984</v>
+        <v>0.08623565417417442</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.4710154440663434</v>
+        <v>0.7939253004862955</v>
       </c>
       <c r="B373" t="n">
-        <v>0.5836606550881682</v>
+        <v>0.7535265924122582</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -4544,32 +4544,32 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.8983893033561041</v>
+        <v>0.09721077064343642</v>
       </c>
       <c r="B374" t="n">
-        <v>0.860647525644181</v>
+        <v>0.2132797802514641</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.5042462554821906</v>
+        <v>0.01909033478274196</v>
       </c>
       <c r="B375" t="n">
-        <v>0.5730130488100873</v>
+        <v>0.1077915242661449</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.5318865058828157</v>
+        <v>0.8049871483620165</v>
       </c>
       <c r="B376" t="n">
-        <v>0.7247859748093417</v>
+        <v>0.8405637360702445</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -4577,43 +4577,43 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.537972590665447</v>
+        <v>0.1000860042223048</v>
       </c>
       <c r="B377" t="n">
-        <v>0.4889050339497958</v>
+        <v>0.01282615395740322</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.8750574702685796</v>
+        <v>0.1984550593623219</v>
       </c>
       <c r="B378" t="n">
-        <v>0.8526690010841831</v>
+        <v>0.04503010362606963</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.5123106136240623</v>
+        <v>0.1091679145333596</v>
       </c>
       <c r="B379" t="n">
-        <v>0.6759275571437822</v>
+        <v>0.04470568043372843</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.7983297408674628</v>
+        <v>0.8821342724615748</v>
       </c>
       <c r="B380" t="n">
-        <v>0.5283361227117542</v>
+        <v>0.7791177787819566</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4621,21 +4621,21 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.545762374949371</v>
+        <v>0.2008045485148475</v>
       </c>
       <c r="B381" t="n">
-        <v>0.8857874450032861</v>
+        <v>0.08321960180909567</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.587811178438822</v>
+        <v>0.7476310773402149</v>
       </c>
       <c r="B382" t="n">
-        <v>0.4792715662975782</v>
+        <v>0.7859365737320595</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.7556386791147833</v>
+        <v>0.8928599728979313</v>
       </c>
       <c r="B383" t="n">
-        <v>0.6003972040990384</v>
+        <v>0.8174188911853443</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -4654,21 +4654,21 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.6477025436881262</v>
+        <v>0.1323434404187497</v>
       </c>
       <c r="B384" t="n">
-        <v>0.5480639848162339</v>
+        <v>0.1435800386141299</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.8595157133907898</v>
+        <v>0.8864714942941682</v>
       </c>
       <c r="B385" t="n">
-        <v>0.6413925580286485</v>
+        <v>0.8894067030349497</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -4676,21 +4676,21 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.6599317289147149</v>
+        <v>0.1574755364210499</v>
       </c>
       <c r="B386" t="n">
-        <v>0.4777150535246107</v>
+        <v>0.2067650122435534</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.8259184937206805</v>
+        <v>0.8810307435701252</v>
       </c>
       <c r="B387" t="n">
-        <v>0.6527208761319866</v>
+        <v>0.8592696726758519</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -4698,21 +4698,21 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.8112941160697427</v>
+        <v>0.1489099139188999</v>
       </c>
       <c r="B388" t="n">
-        <v>0.6967281618130466</v>
+        <v>0.02055574941837379</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.5448698401343868</v>
+        <v>0.8084766707252479</v>
       </c>
       <c r="B389" t="n">
-        <v>0.4513895340506746</v>
+        <v>0.748903812078488</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.896375122248636</v>
+        <v>0.8528860788096428</v>
       </c>
       <c r="B390" t="n">
-        <v>0.5876394318035725</v>
+        <v>0.7275986181805235</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.5416001682481422</v>
+        <v>0.7267820999322503</v>
       </c>
       <c r="B391" t="n">
-        <v>0.7490835957173392</v>
+        <v>0.7649780650390039</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -4742,21 +4742,21 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.7982972497604465</v>
+        <v>0.07129789179771902</v>
       </c>
       <c r="B392" t="n">
-        <v>0.4154777555283665</v>
+        <v>0.204270010634459</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.5072678370912963</v>
+        <v>0.7154640998287101</v>
       </c>
       <c r="B393" t="n">
-        <v>0.6212997163102714</v>
+        <v>0.7015539172580664</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.8057837615166836</v>
+        <v>0.7047515402501305</v>
       </c>
       <c r="B394" t="n">
-        <v>0.8643786010388645</v>
+        <v>0.8808481321449568</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -4775,21 +4775,21 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.7424761469067432</v>
+        <v>0.0748375529847671</v>
       </c>
       <c r="B395" t="n">
-        <v>0.7344956617907472</v>
+        <v>0.2712065525986256</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.6162335479657781</v>
+        <v>0.8624449615159014</v>
       </c>
       <c r="B396" t="n">
-        <v>0.7088698149925897</v>
+        <v>0.8172043425204005</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.4900176037570254</v>
+        <v>0.745527914875411</v>
       </c>
       <c r="B397" t="n">
-        <v>0.578072165723972</v>
+        <v>0.7118790911441204</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.7135986478683773</v>
+        <v>0.8086391406859517</v>
       </c>
       <c r="B398" t="n">
-        <v>0.6067792685917315</v>
+        <v>0.7574931628621508</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.7975990683080929</v>
+        <v>0.8656182328632929</v>
       </c>
       <c r="B399" t="n">
-        <v>0.6430106728746389</v>
+        <v>0.7708387070708326</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.7798308529471356</v>
+        <v>0.7717467282177346</v>
       </c>
       <c r="B400" t="n">
-        <v>0.8731974024244555</v>
+        <v>0.703078744050791</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -4841,21 +4841,21 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.7464097924001413</v>
+        <v>0.2763789001128746</v>
       </c>
       <c r="B401" t="n">
-        <v>0.7254073444938783</v>
+        <v>0.2705115059730824</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.6107364802657873</v>
+        <v>0.8152515374184413</v>
       </c>
       <c r="B402" t="n">
-        <v>0.7673476517543062</v>
+        <v>0.7732123570791218</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -4863,32 +4863,32 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.7395578309201871</v>
+        <v>0.269229929767332</v>
       </c>
       <c r="B403" t="n">
-        <v>0.8459805568624326</v>
+        <v>0.2206147025494049</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.7661206015617646</v>
+        <v>0.1001863841535683</v>
       </c>
       <c r="B404" t="n">
-        <v>0.5829763590474559</v>
+        <v>0.04386305633436489</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.5679697516720125</v>
+        <v>0.7819198067791032</v>
       </c>
       <c r="B405" t="n">
-        <v>0.5049424487875482</v>
+        <v>0.7274130209098613</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.7582232024940616</v>
+        <v>0.7707955054216987</v>
       </c>
       <c r="B406" t="n">
-        <v>0.8824582657063362</v>
+        <v>0.8515491417527131</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.8320661092061217</v>
+        <v>0.8962181664638317</v>
       </c>
       <c r="B407" t="n">
-        <v>0.6667538033667224</v>
+        <v>0.8384212661633561</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.6647485565168637</v>
+        <v>0.860757212117389</v>
       </c>
       <c r="B408" t="n">
-        <v>0.8474212584265959</v>
+        <v>0.8819686830166633</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -4929,54 +4929,54 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.8744519458685898</v>
+        <v>0.04282026528090942</v>
       </c>
       <c r="B409" t="n">
-        <v>0.5565342043780839</v>
+        <v>0.2270109910418783</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.8799552190709189</v>
+        <v>0.1344058017874765</v>
       </c>
       <c r="B410" t="n">
-        <v>0.435669003554675</v>
+        <v>0.2318853108054663</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.4007500535452037</v>
+        <v>0.07254257917456752</v>
       </c>
       <c r="B411" t="n">
-        <v>0.5089673073106062</v>
+        <v>0.2679649696412189</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.8493616113933149</v>
+        <v>0.2798285924198333</v>
       </c>
       <c r="B412" t="n">
-        <v>0.6024488221146174</v>
+        <v>0.04621624699976832</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.8299117167316723</v>
+        <v>0.8117422101041717</v>
       </c>
       <c r="B413" t="n">
-        <v>0.6281311104175418</v>
+        <v>0.853739649359927</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -4984,21 +4984,21 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.8199505716468835</v>
+        <v>0.02016606714858787</v>
       </c>
       <c r="B414" t="n">
-        <v>0.6121907328307422</v>
+        <v>0.08626499516227297</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.4230463627528347</v>
+        <v>0.8960795224773113</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8637029421243045</v>
+        <v>0.7037864499145019</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.8124896169634227</v>
+        <v>0.8025241907730076</v>
       </c>
       <c r="B416" t="n">
-        <v>0.6778441723533233</v>
+        <v>0.8636966425014173</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.7912101731350401</v>
+        <v>0.7471818379800217</v>
       </c>
       <c r="B417" t="n">
-        <v>0.8724381862710849</v>
+        <v>0.7180772108500485</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.8764731344224111</v>
+        <v>0.8555604301582945</v>
       </c>
       <c r="B418" t="n">
-        <v>0.7259339741324045</v>
+        <v>0.8479747257489998</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.6436804979140944</v>
+        <v>0.8383413253838392</v>
       </c>
       <c r="B419" t="n">
-        <v>0.5263817381664919</v>
+        <v>0.7068789148310999</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5050,32 +5050,32 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.7318039098585891</v>
+        <v>0.0348136830047174</v>
       </c>
       <c r="B420" t="n">
-        <v>0.8069479898428555</v>
+        <v>0.106415994657785</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.6652542678598191</v>
+        <v>0.2430684953964733</v>
       </c>
       <c r="B421" t="n">
-        <v>0.8304025436673859</v>
+        <v>0.01563404420219028</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.6687355514485878</v>
+        <v>0.8395447645815172</v>
       </c>
       <c r="B422" t="n">
-        <v>0.7436270827619448</v>
+        <v>0.8361948258999893</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.4739379873463428</v>
+        <v>0.7452063120910036</v>
       </c>
       <c r="B423" t="n">
-        <v>0.6793769552944831</v>
+        <v>0.7281213424410392</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.4100992768669476</v>
+        <v>0.8829859887853091</v>
       </c>
       <c r="B424" t="n">
-        <v>0.5823526679747841</v>
+        <v>0.7359755390814549</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.7508255753141466</v>
+        <v>0.8809488197234711</v>
       </c>
       <c r="B425" t="n">
-        <v>0.6676390420688338</v>
+        <v>0.8414827694320395</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5116,43 +5116,43 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.4151669437956105</v>
+        <v>0.0373589814755052</v>
       </c>
       <c r="B426" t="n">
-        <v>0.4169536100878575</v>
+        <v>0.2816030823669768</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.4415387644415203</v>
+        <v>0.2075295310279698</v>
       </c>
       <c r="B427" t="n">
-        <v>0.6486766412283198</v>
+        <v>0.2100126159947773</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.749109049779108</v>
+        <v>0.264537742940201</v>
       </c>
       <c r="B428" t="n">
-        <v>0.4782400663034894</v>
+        <v>0.2152924670280475</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.8852129462941671</v>
+        <v>0.8752300789681425</v>
       </c>
       <c r="B429" t="n">
-        <v>0.7999231018426862</v>
+        <v>0.8246976863048523</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5160,21 +5160,21 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.6897518408087275</v>
+        <v>0.1426177619948291</v>
       </c>
       <c r="B430" t="n">
-        <v>0.4443531703761258</v>
+        <v>0.26966091767746</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.8821156057420032</v>
+        <v>0.8882845893954101</v>
       </c>
       <c r="B431" t="n">
-        <v>0.8160116705739974</v>
+        <v>0.8038175960058798</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.8761351083995881</v>
+        <v>0.7037414474709576</v>
       </c>
       <c r="B432" t="n">
-        <v>0.8224441257628012</v>
+        <v>0.7747980824565479</v>
       </c>
       <c r="C432" t="n">
         <v>1</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.8180854565888454</v>
+        <v>0.8727146331351251</v>
       </c>
       <c r="B433" t="n">
-        <v>0.5368772104741122</v>
+        <v>0.8061743231713104</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.8092818473122758</v>
+        <v>0.7712850770885675</v>
       </c>
       <c r="B434" t="n">
-        <v>0.6476883793378785</v>
+        <v>0.7424845498537431</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -5215,32 +5215,32 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.6006210019954965</v>
+        <v>0.2786164745163168</v>
       </c>
       <c r="B435" t="n">
-        <v>0.5530803666586734</v>
+        <v>0.2431115929946921</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.6288675594251285</v>
+        <v>0.0637120558711807</v>
       </c>
       <c r="B436" t="n">
-        <v>0.5163535570691965</v>
+        <v>0.02973749200893083</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.8059701358950313</v>
+        <v>0.8848516695861178</v>
       </c>
       <c r="B437" t="n">
-        <v>0.684201701459396</v>
+        <v>0.7989331853075122</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -5248,21 +5248,21 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.5246758390254693</v>
+        <v>0.2663111503816645</v>
       </c>
       <c r="B438" t="n">
-        <v>0.6360680051772718</v>
+        <v>0.1491064847017586</v>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.5651993493524425</v>
+        <v>0.7335508682170355</v>
       </c>
       <c r="B439" t="n">
-        <v>0.855548841567051</v>
+        <v>0.8522445747389332</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.6751423126229117</v>
+        <v>0.7947495887079428</v>
       </c>
       <c r="B440" t="n">
-        <v>0.7860568278977768</v>
+        <v>0.8256322456046969</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -5281,32 +5281,32 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.6293240734036686</v>
+        <v>0.1028096863597805</v>
       </c>
       <c r="B441" t="n">
-        <v>0.541093066817437</v>
+        <v>0.1298830408564808</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.5073520289753648</v>
+        <v>0.2916751848936364</v>
       </c>
       <c r="B442" t="n">
-        <v>0.8571020693402517</v>
+        <v>0.06427524755232585</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.8648949484249084</v>
+        <v>0.8248169219406571</v>
       </c>
       <c r="B443" t="n">
-        <v>0.6010384921713109</v>
+        <v>0.8299251498085005</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.7028975441321017</v>
+        <v>0.7278376270513776</v>
       </c>
       <c r="B444" t="n">
-        <v>0.573939802952704</v>
+        <v>0.8349968544229622</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5325,76 +5325,76 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.6926447822692863</v>
+        <v>0.1717185939025397</v>
       </c>
       <c r="B445" t="n">
-        <v>0.7985983643363513</v>
+        <v>0.2977569315546299</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.8785403526447522</v>
+        <v>0.1563662663285375</v>
       </c>
       <c r="B446" t="n">
-        <v>0.765215232082317</v>
+        <v>0.2081898364939495</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.6435939744531955</v>
+        <v>0.09109646163981454</v>
       </c>
       <c r="B447" t="n">
-        <v>0.7747132255992284</v>
+        <v>0.05216849382690447</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.65148692471764</v>
+        <v>0.1769787013391884</v>
       </c>
       <c r="B448" t="n">
-        <v>0.6901859123702971</v>
+        <v>0.105298747024999</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.5954614175059889</v>
+        <v>0.2958534905259005</v>
       </c>
       <c r="B449" t="n">
-        <v>0.4399907143829364</v>
+        <v>0.07179243407966494</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.4927692905652069</v>
+        <v>0.01402195613086814</v>
       </c>
       <c r="B450" t="n">
-        <v>0.5944127207883122</v>
+        <v>0.2688186347569622</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.494986764079674</v>
+        <v>0.8635886477285715</v>
       </c>
       <c r="B451" t="n">
-        <v>0.5136976322936522</v>
+        <v>0.7254966459060437</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -5402,21 +5402,21 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.8580490799575311</v>
+        <v>0.2415771998361197</v>
       </c>
       <c r="B452" t="n">
-        <v>0.5257356526058472</v>
+        <v>0.1898841169150861</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.7454474895020875</v>
+        <v>0.7625053850880315</v>
       </c>
       <c r="B453" t="n">
-        <v>0.4956476724239096</v>
+        <v>0.7762153705495068</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.8600682849143444</v>
+        <v>0.8331095290824084</v>
       </c>
       <c r="B454" t="n">
-        <v>0.4789558885558691</v>
+        <v>0.7184258551377184</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.7080540369450932</v>
+        <v>0.741470569724586</v>
       </c>
       <c r="B455" t="n">
-        <v>0.4042665740844485</v>
+        <v>0.8907098163048215</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -5446,21 +5446,21 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.4002493263189904</v>
+        <v>0.03646502325864752</v>
       </c>
       <c r="B456" t="n">
-        <v>0.7186532803805813</v>
+        <v>0.03342606535309712</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.6706365715779377</v>
+        <v>0.88655255685315</v>
       </c>
       <c r="B457" t="n">
-        <v>0.6849429248415657</v>
+        <v>0.7149051422210337</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -5468,43 +5468,43 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.6485156572213109</v>
+        <v>0.01895308964113971</v>
       </c>
       <c r="B458" t="n">
-        <v>0.4810581635033889</v>
+        <v>0.1656196470911056</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.4729338838848329</v>
+        <v>0.07693802226652825</v>
       </c>
       <c r="B459" t="n">
-        <v>0.8499098217043406</v>
+        <v>0.2788268538862074</v>
       </c>
       <c r="C459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.6741479165182647</v>
+        <v>0.08887812155629206</v>
       </c>
       <c r="B460" t="n">
-        <v>0.7165689803202784</v>
+        <v>0.02695024026268937</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.6926689251756917</v>
+        <v>0.8896444111432302</v>
       </c>
       <c r="B461" t="n">
-        <v>0.6314321471397415</v>
+        <v>0.8289293215969642</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.7844187247477639</v>
+        <v>0.8489850639005666</v>
       </c>
       <c r="B462" t="n">
-        <v>0.7654174301377212</v>
+        <v>0.7816029595009824</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -5523,21 +5523,21 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.8914954237086827</v>
+        <v>0.01736947035481841</v>
       </c>
       <c r="B463" t="n">
-        <v>0.556582807150103</v>
+        <v>0.2037980634895785</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.4869592422284988</v>
+        <v>0.8014535025350314</v>
       </c>
       <c r="B464" t="n">
-        <v>0.8109730383870948</v>
+        <v>0.7301431789433452</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.5674016841025408</v>
+        <v>0.7096515222405767</v>
       </c>
       <c r="B465" t="n">
-        <v>0.8219740919647485</v>
+        <v>0.8502317685607217</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -5556,43 +5556,43 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.8228381686742317</v>
+        <v>0.1826412169428242</v>
       </c>
       <c r="B466" t="n">
-        <v>0.5773505531971701</v>
+        <v>0.2613852777663695</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.6370460025985532</v>
+        <v>0.07678989497230072</v>
       </c>
       <c r="B467" t="n">
-        <v>0.7361751345772105</v>
+        <v>0.04557929499892845</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.7337000479046931</v>
+        <v>0.1427977810451827</v>
       </c>
       <c r="B468" t="n">
-        <v>0.4786885603841687</v>
+        <v>0.2689399006907396</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.5161663797736514</v>
+        <v>0.8280710999953582</v>
       </c>
       <c r="B469" t="n">
-        <v>0.7739449366399369</v>
+        <v>0.7193644562499228</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -5600,32 +5600,32 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.8713842609116134</v>
+        <v>0.117559947460482</v>
       </c>
       <c r="B470" t="n">
-        <v>0.5175461586548572</v>
+        <v>0.08915015144745675</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0.4583502467915521</v>
+        <v>0.1812758800403599</v>
       </c>
       <c r="B471" t="n">
-        <v>0.5810004584160686</v>
+        <v>0.02314801033331554</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.5427401703970705</v>
+        <v>0.8716602500400416</v>
       </c>
       <c r="B472" t="n">
-        <v>0.5853774455762921</v>
+        <v>0.8229538757718987</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -5633,21 +5633,21 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.8626376943676507</v>
+        <v>0.258080387269504</v>
       </c>
       <c r="B473" t="n">
-        <v>0.5108891950676618</v>
+        <v>0.1074060954517752</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.4882021731984856</v>
+        <v>0.802825462031675</v>
       </c>
       <c r="B474" t="n">
-        <v>0.60128914651229</v>
+        <v>0.7336028997644495</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.4282844869535368</v>
+        <v>0.8421912823033366</v>
       </c>
       <c r="B475" t="n">
-        <v>0.5176365108724389</v>
+        <v>0.7160481259535436</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.4488422884942815</v>
+        <v>0.8422275476891362</v>
       </c>
       <c r="B476" t="n">
-        <v>0.8968154151361634</v>
+        <v>0.8740848625775525</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.5232835695530748</v>
+        <v>0.8347315640605149</v>
       </c>
       <c r="B477" t="n">
-        <v>0.7465565874385409</v>
+        <v>0.714239709639208</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -5688,109 +5688,109 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.8043269914641842</v>
+        <v>0.1869540413576939</v>
       </c>
       <c r="B478" t="n">
-        <v>0.638507456191628</v>
+        <v>0.1593097203383209</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.6240417315781777</v>
+        <v>0.1980267610026582</v>
       </c>
       <c r="B479" t="n">
-        <v>0.4969608256753568</v>
+        <v>0.299026562177988</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.5819091396969723</v>
+        <v>0.2732809356667087</v>
       </c>
       <c r="B480" t="n">
-        <v>0.4801617314019158</v>
+        <v>0.2605062517001879</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.8342227961072841</v>
+        <v>0.2867353022873796</v>
       </c>
       <c r="B481" t="n">
-        <v>0.7855456268459917</v>
+        <v>0.07696397584071893</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.4116736029999492</v>
+        <v>0.1822438552115328</v>
       </c>
       <c r="B482" t="n">
-        <v>0.7851706174360614</v>
+        <v>0.07841475319313958</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.4751115153239631</v>
+        <v>0.2655853022509879</v>
       </c>
       <c r="B483" t="n">
-        <v>0.6102651270480605</v>
+        <v>0.1651784853749742</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.4857495835931535</v>
+        <v>0.088244116972111</v>
       </c>
       <c r="B484" t="n">
-        <v>0.4698868803652644</v>
+        <v>0.2492041772148429</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.8026969446751211</v>
+        <v>0.2528643005256643</v>
       </c>
       <c r="B485" t="n">
-        <v>0.438747060844318</v>
+        <v>0.1558928219010085</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.4249600514556403</v>
+        <v>0.1859392904600186</v>
       </c>
       <c r="B486" t="n">
-        <v>0.4940533434042712</v>
+        <v>0.2798766435800681</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.7608696374323551</v>
+        <v>0.8569477594546829</v>
       </c>
       <c r="B487" t="n">
-        <v>0.5707201024709929</v>
+        <v>0.7057538660464733</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -5798,32 +5798,32 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.4438455094780779</v>
+        <v>0.07628385172689439</v>
       </c>
       <c r="B488" t="n">
-        <v>0.8147837178996158</v>
+        <v>0.1757732983014228</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.7614907478435347</v>
+        <v>0.07702490833458782</v>
       </c>
       <c r="B489" t="n">
-        <v>0.5497901409753571</v>
+        <v>0.1357401758580326</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0.4703474256447068</v>
+        <v>0.7881718453990953</v>
       </c>
       <c r="B490" t="n">
-        <v>0.7190123974491615</v>
+        <v>0.751702469301133</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -5831,21 +5831,21 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.8439579837410718</v>
+        <v>0.2997503520721357</v>
       </c>
       <c r="B491" t="n">
-        <v>0.563470816774693</v>
+        <v>0.1283873893576111</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.6658467903657364</v>
+        <v>0.7798940200716168</v>
       </c>
       <c r="B492" t="n">
-        <v>0.8004733331413014</v>
+        <v>0.7227755380421871</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.6946931858013784</v>
+        <v>0.7616483970970525</v>
       </c>
       <c r="B493" t="n">
-        <v>0.8223274656141095</v>
+        <v>0.7537811889650518</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>0.4693483960727663</v>
+        <v>0.8029131316021626</v>
       </c>
       <c r="B494" t="n">
-        <v>0.5335616463599369</v>
+        <v>0.8420852404159749</v>
       </c>
       <c r="C494" t="n">
         <v>1</v>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.6387716982436431</v>
+        <v>0.7309101601529709</v>
       </c>
       <c r="B495" t="n">
-        <v>0.4013547121305482</v>
+        <v>0.7618221885659138</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -5886,43 +5886,43 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.6742644396942339</v>
+        <v>0.1937416051316521</v>
       </c>
       <c r="B496" t="n">
-        <v>0.4605421681382742</v>
+        <v>0.2726700775511293</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.5786056535225039</v>
+        <v>0.115093576765944</v>
       </c>
       <c r="B497" t="n">
-        <v>0.5196427412209124</v>
+        <v>0.04532426352554055</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.6306070810979629</v>
+        <v>0.05032783222731572</v>
       </c>
       <c r="B498" t="n">
-        <v>0.8198408776690791</v>
+        <v>0.1574504343448375</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.5609451985508627</v>
+        <v>0.738591975901161</v>
       </c>
       <c r="B499" t="n">
-        <v>0.6524370090298891</v>
+        <v>0.8273766258483931</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.5650799649345537</v>
+        <v>0.8996244104777942</v>
       </c>
       <c r="B500" t="n">
-        <v>0.5712006070015216</v>
+        <v>0.8243912120291831</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -5941,13 +5941,57 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.4571106681747082</v>
+        <v>0.7791280346837275</v>
       </c>
       <c r="B501" t="n">
-        <v>0.6655189111334634</v>
+        <v>0.8137927593745942</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.75315408537807</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.8002267759802566</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.7464433512953281</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0.7659517765900682</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0.2340076396315523</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.2808111373027089</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0.1334510215173509</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0.2851516019487377</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
